--- a/MISIS labs/Lab2/lab2.xlsx
+++ b/MISIS labs/Lab2/lab2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_repos\University_courses\Python-Practice\MISIS labs\Lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guest\Desktop\Python-Practice\MISIS labs\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB6796-AA42-4066-8E36-231B0D7F984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="5145" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="5150" windowWidth="21600" windowHeight="11840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Разбор формулы" sheetId="1" r:id="rId1"/>
+    <sheet name="Сравн Рек. и Прям. вычисления" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Решение задачи в ручную с использованием Excel</t>
   </si>
@@ -64,17 +64,141 @@
   <si>
     <t>Это альтернативная запись формулы разобранной ранее, при большом количестве членов ряда</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Функция для вычисления суммы ряда
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def calculate_series(x):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    s = 0 # Общая сумма накопленная в границах диапозона
+    part = 1 # первый член ряда
+    i = 0
+    # Сравнение члена по модулю с заданной точностью
+    while abs(part) &gt;= epsilon: # Чтобы не вычислять сумму для заданных параметров бесконечно.
+        part = (2 * x) ** i / factorial(i)
+        s += part
+        i += 1
+    return s</t>
+    </r>
+  </si>
+  <si>
+    <t>Вывод при исп. def calculate_series(x):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def calculate_series_recurent(x):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    s = 0  # Общая сумма
+    part = 1  # Первый член ряда (для n=0)
+    n = 0  # Счетчик членов
+    # Сравнение предыдущего члена по модулю с заданной точностью
+    while abs(part) &gt;= epsilon:  # Пока модуль текущего члена больше epsilon
+        s += part  # Добавляем текущий член к общей сумме
+        n += 1  # Увеличиваем счетчик членов
+        part *= (2 * x) / n  # Рекуррентная формула для следующего члена
+    return s</t>
+    </r>
+  </si>
+  <si>
+    <t>x = 0.10 | s(x) = 1.2214 | y(x) = 1.2214
+x = 0.15 | s(x) = 1.3499 | y(x) = 1.3499
+x = 0.20 | s(x) = 1.4918 | y(x) = 1.4918
+x = 0.25 | s(x) = 1.6487 | y(x) = 1.6487
+x = 0.30 | s(x) = 1.8221 | y(x) = 1.8221
+x = 0.35 | s(x) = 2.0138 | y(x) = 2.0138
+x = 0.40 | s(x) = 2.2255 | y(x) = 2.2255
+x = 0.45 | s(x) = 2.4596 | y(x) = 2.4596
+x = 0.50 | s(x) = 2.7183 | y(x) = 2.7183
+x = 0.55 | s(x) = 3.0042 | y(x) = 3.0042
+x = 0.60 | s(x) = 3.3201 | y(x) = 3.3201
+x = 0.65 | s(x) = 3.6693 | y(x) = 3.6693
+x = 0.70 | s(x) = 4.0552 | y(x) = 4.0552
+x = 0.75 | s(x) = 4.4817 | y(x) = 4.4817
+x = 0.80 | s(x) = 4.9530 | y(x) = 4.9530
+x = 0.85 | s(x) = 5.4739 | y(x) = 5.4739
+x = 0.90 | s(x) = 6.0496 | y(x) = 6.0496
+x = 0.95 | s(x) = 6.6859 | y(x) = 6.6859</t>
+  </si>
+  <si>
+    <t>x = 0.10 | s(x) = 1.2213 | y(x) = 1.2214
+x = 0.15 | s(x) = 1.3498 | y(x) = 1.3499
+x = 0.20 | s(x) = 1.4917 | y(x) = 1.4918
+x = 0.25 | s(x) = 1.6487 | y(x) = 1.6487
+x = 0.30 | s(x) = 1.8220 | y(x) = 1.8221
+x = 0.35 | s(x) = 2.0137 | y(x) = 2.0138
+x = 0.40 | s(x) = 2.2255 | y(x) = 2.2255
+x = 0.45 | s(x) = 2.4595 | y(x) = 2.4596
+x = 0.50 | s(x) = 2.7183 | y(x) = 2.7183
+x = 0.55 | s(x) = 3.0041 | y(x) = 3.0042
+x = 0.60 | s(x) = 3.3201 | y(x) = 3.3201
+x = 0.65 | s(x) = 3.6693 | y(x) = 3.6693
+x = 0.70 | s(x) = 4.0551 | y(x) = 4.0552
+x = 0.75 | s(x) = 4.4817 | y(x) = 4.4817
+x = 0.80 | s(x) = 4.9530 | y(x) = 4.9530
+x = 0.85 | s(x) = 5.4739 | y(x) = 5.4739
+x = 0.90 | s(x) = 6.0495 | y(x) = 6.0496
+x = 0.95 | s(x) = 6.6859 | y(x) = 6.6859</t>
+  </si>
+  <si>
+    <t>Минимальные отличия в точности</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,17 +254,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,156 +691,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -715,20 +848,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -736,7 +869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>10</v>
       </c>
@@ -748,4 +881,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>